--- a/Lab2Oblako/Лабораторная 2.xlsx
+++ b/Lab2Oblako/Лабораторная 2.xlsx
@@ -13,15 +13,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={19cc826a-18a5-4348-ba77-0cc0a0a47908}</author>
-    <author>tc={2b6862a0-30f4-401d-8358-f992adaa27b8}</author>
-    <author>tc={8355755d-baac-4e1c-8890-6c35feaf6646}</author>
-    <author>tc={90915321-e450-4b9e-81ac-fbf4e7b50f08}</author>
-    <author>tc={d654d6cf-9f6a-4e6e-9041-93e23e5dbbe3}</author>
-    <author>tc={d76a06b1-5f76-4429-aa2c-7f00f0744109}</author>
+    <author>tc={1bb3ee65-54f4-4bec-8f82-92a5e891297b}</author>
+    <author>tc={259fe099-99bf-4164-89d5-9ea0f84b6fa9}</author>
+    <author>tc={2ae592ef-877e-4f75-99d0-1dcfc93fd67f}</author>
+    <author>tc={4dfca5c1-fb2b-4133-bad0-3fd7886e828c}</author>
+    <author>tc={76f81958-e973-4161-aeef-9cd92a2d37f0}</author>
+    <author>tc={7c0433ae-8f14-4bf3-a8ab-4ebdcf8800c6}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{19cc826a-18a5-4348-ba77-0cc0a0a47908}" ref="H40">
+    <comment authorId="0" xr:uid="{1bb3ee65-54f4-4bec-8f82-92a5e891297b}" ref="H40">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -30,16 +30,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{2b6862a0-30f4-401d-8358-f992adaa27b8}" ref="E43">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
- Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-	но за пользование batch нужно платить отдельно. или нет? почему плата за batch не  отобразилась в биллинге
-</t>
-      </text>
-    </comment>
-    <comment authorId="2" xr:uid="{8355755d-baac-4e1c-8890-6c35feaf6646}" ref="E28">
+    <comment authorId="1" xr:uid="{259fe099-99bf-4164-89d5-9ea0f84b6fa9}" ref="E28">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -48,7 +39,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="3" xr:uid="{90915321-e450-4b9e-81ac-fbf4e7b50f08}" ref="F27">
+    <comment authorId="2" xr:uid="{2ae592ef-877e-4f75-99d0-1dcfc93fd67f}" ref="F27">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,16 +48,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="4" xr:uid="{d654d6cf-9f6a-4e6e-9041-93e23e5dbbe3}" ref="E42">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
- Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-	по задумке. как его по факту использовали, биллинг умалчивает
-</t>
-      </text>
-    </comment>
-    <comment authorId="5" xr:uid="{d76a06b1-5f76-4429-aa2c-7f00f0744109}" ref="E4">
+    <comment authorId="3" xr:uid="{4dfca5c1-fb2b-4133-bad0-3fd7886e828c}" ref="E4">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,6 +59,24 @@
 </t>
       </text>
     </comment>
+    <comment authorId="4" xr:uid="{76f81958-e973-4161-aeef-9cd92a2d37f0}" ref="E43">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+ Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+	но за пользование batch нужно платить отдельно. или нет? почему плата за batch не  отобразилась в биллинге
+</t>
+      </text>
+    </comment>
+    <comment authorId="5" xr:uid="{7c0433ae-8f14-4bf3-a8ab-4ebdcf8800c6}" ref="E42">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+ Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+	по задумке. как его по факту использовали, биллинг умалчивает
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -390,6 +390,9 @@
     <t>%Data Transfer</t>
   </si>
   <si>
+    <t>Azure Batch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compute Job Scheduling </t>
   </si>
   <si>
@@ -467,9 +470,6 @@
   </si>
   <si>
     <t>Big-scale parallel processing, Pay-as-you-go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-Series, но тарифный план указан, а часы нет </t>
   </si>
   <si>
     <t>Entry-level VMs for dev/test, Savings Plan</t>
@@ -602,8 +602,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <x18tc:person displayName="Karl Ivanov" id="{7fdf293c-a8cd-4bf9-a7fc-4a37ad7e2e4c}" providerId="google-sheets"/>
-  <x18tc:person displayName="Erik" id="{4874daef-65c7-47b0-9d67-2f4ee8d605d6}" providerId="google-sheets"/>
+  <x18tc:person displayName="Karl Ivanov" id="{067e6258-aee1-41a0-9d69-57113ff9bfb2}" providerId="google-sheets"/>
+  <x18tc:person displayName="Erik" id="{caa24f72-88ff-4574-a03a-e71e65a6eb5d}" providerId="google-sheets"/>
 </x18tc:personList>
 </file>
 
@@ -803,25 +803,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="H40" dT="2025-12-24T14:29:06.00" personId="{4874daef-65c7-47b0-9d67-2f4ee8d605d6}" id="{19cc826a-18a5-4348-ba77-0cc0a0a47908}" done="0">
+  <x18tc:threadedComment ref="H40" dT="2025-12-24T14:29:06.00" personId="{caa24f72-88ff-4574-a03a-e71e65a6eb5d}" id="{1bb3ee65-54f4-4bec-8f82-92a5e891297b}" done="0">
     <x18tc:text xml:space="preserve">если это действительно G-Series, то даже там есть единица измерения. тарифный план * кол-во времени</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="E42" dT="2025-12-24T14:49:25.00" personId="{4874daef-65c7-47b0-9d67-2f4ee8d605d6}" id="{d654d6cf-9f6a-4e6e-9041-93e23e5dbbe3}" done="0">
+  <x18tc:threadedComment ref="E42" dT="2025-12-24T14:49:25.00" personId="{caa24f72-88ff-4574-a03a-e71e65a6eb5d}" id="{7c0433ae-8f14-4bf3-a8ab-4ebdcf8800c6}" done="0">
     <x18tc:text xml:space="preserve">по задумке. как его по факту использовали, биллинг умалчивает</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="E43" dT="2025-12-24T15:29:33.00" personId="{4874daef-65c7-47b0-9d67-2f4ee8d605d6}" id="{2b6862a0-30f4-401d-8358-f992adaa27b8}" done="0">
+  <x18tc:threadedComment ref="E43" dT="2025-12-24T15:29:33.00" personId="{caa24f72-88ff-4574-a03a-e71e65a6eb5d}" id="{76f81958-e973-4161-aeef-9cd92a2d37f0}" done="0">
     <x18tc:text xml:space="preserve">но за пользование batch нужно платить отдельно. или нет? почему плата за batch не  отобразилась в биллинге</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="E28" dT="2025-12-24T14:35:38.00" personId="{4874daef-65c7-47b0-9d67-2f4ee8d605d6}" id="{8355755d-baac-4e1c-8890-6c35feaf6646}" done="0">
+  <x18tc:threadedComment ref="E28" dT="2025-12-24T14:35:38.00" personId="{caa24f72-88ff-4574-a03a-e71e65a6eb5d}" id="{259fe099-99bf-4164-89d5-9ea0f84b6fa9}" done="0">
     <x18tc:text xml:space="preserve">нужно как-то обозначить различие между двумя статьями</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="F27" dT="2025-12-24T14:36:45.00" personId="{4874daef-65c7-47b0-9d67-2f4ee8d605d6}" id="{90915321-e450-4b9e-81ac-fbf4e7b50f08}" done="0">
+  <x18tc:threadedComment ref="F27" dT="2025-12-24T14:36:45.00" personId="{caa24f72-88ff-4574-a03a-e71e65a6eb5d}" id="{2ae592ef-877e-4f75-99d0-1dcfc93fd67f}" done="0">
     <x18tc:text xml:space="preserve">что эта хуйня делает. данные и так передает интернет-оператор</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="E4" dT="2025-12-24T14:54:53.00" personId="{4874daef-65c7-47b0-9d67-2f4ee8d605d6}" id="{d76a06b1-5f76-4429-aa2c-7f00f0744109}" done="0">
+  <x18tc:threadedComment ref="E4" dT="2025-12-24T14:54:53.00" personId="{caa24f72-88ff-4574-a03a-e71e65a6eb5d}" id="{4dfca5c1-fb2b-4133-bad0-3fd7886e828c}" done="0">
     <x18tc:text xml:space="preserve">что это значит? сервис - единственный compute, совместимый с databricks? только тогда такое описание оправдано</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="E4" dT="2025-12-24T15:18:54.00" personId="{7fdf293c-a8cd-4bf9-a7fc-4a37ad7e2e4c}" id="{f582308c-3920-4588-8182-d2fc607f567c}" parentId="{d76a06b1-5f76-4429-aa2c-7f00f0744109}">
+  <x18tc:threadedComment ref="E4" dT="2025-12-24T15:18:54.00" personId="{067e6258-aee1-41a0-9d69-57113ff9bfb2}" id="{40d64832-3a80-48f8-974f-98185f95e2b8}" parentId="{4dfca5c1-fb2b-4133-bad0-3fd7886e828c}">
     <x18tc:text xml:space="preserve">Там всё остальное - журналы, планировщики и подобное</x18tc:text>
   </x18tc:threadedComment>
 </x18tc:ThreadedComments>
@@ -1632,22 +1632,22 @@
         <v>102</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -1658,19 +1658,19 @@
         <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>51</v>
@@ -1687,19 +1687,19 @@
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>51</v>
@@ -1716,19 +1716,19 @@
         <v>10</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>51</v>
@@ -1745,19 +1745,19 @@
         <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>51</v>
@@ -1774,19 +1774,19 @@
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>51</v>
@@ -1803,19 +1803,19 @@
         <v>10</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>51</v>
@@ -1832,22 +1832,22 @@
         <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37">
@@ -1858,22 +1858,22 @@
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>129</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>130</v>
@@ -1887,22 +1887,22 @@
         <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>131</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>130</v>
@@ -1916,22 +1916,22 @@
         <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>132</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>130</v>
@@ -1945,22 +1945,22 @@
         <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>133</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>130</v>
@@ -1974,22 +1974,22 @@
         <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>134</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>130</v>
@@ -2003,22 +2003,22 @@
         <v>10</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>135</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>130</v>
@@ -2041,16 +2041,16 @@
         <v>137</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
